--- a/Manal COR and GPA for Applications that are stuck at - Application Status Check and Confirm_ATI_Registration Work Step - May 24, 2024.xlsx
+++ b/Manal COR and GPA for Applications that are stuck at - Application Status Check and Confirm_ATI_Registration Work Step - May 24, 2024.xlsx
@@ -1,201 +1,172 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbenjamin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CB0BC45-2AA7-4B4B-B1C6-211B1C9A00FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CFE74845-13A3-4730-9DBD-589C84960455}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Application Status Check" sheetId="1" r:id="rId1"/>
-    <sheet name="Confirm_ATI_Registration" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Application Status Check" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Confirm_ATI_Registration" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Confirm_ATI_Registration!$A$2:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase">'Confirm_ATI_Registration'!$A$2:$F$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="36">
   <si>
+    <t>Manual Registration Information 2023/2024</t>
+  </si>
+  <si>
     <t>RLOS</t>
   </si>
   <si>
     <t>TRN</t>
   </si>
   <si>
+    <t>Registered  "Y" or "N"</t>
+  </si>
+  <si>
+    <t>Semester Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semester cost </t>
+  </si>
+  <si>
     <t>ATI</t>
   </si>
   <si>
     <t>GPA</t>
   </si>
   <si>
+    <t>SLB-RLOS-127127</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
+    <t>Edna Manley College</t>
+  </si>
+  <si>
+    <t>Registered "Y" or "N"</t>
+  </si>
+  <si>
+    <t>Semester Cost</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-122218</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-132610</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-122274</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>SLB-RLOS-132610</t>
+    <t>SLB-RLOS-121287</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-121413</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-120429</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-125552</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-123864</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-123248</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-126233</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-126245</t>
   </si>
   <si>
     <t>SLB-RLOS-129107</t>
   </si>
   <si>
+    <t>SLB-RLOS-121421</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-122703</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-127610</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-123174</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-125270</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-126142</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-121575</t>
+  </si>
+  <si>
+    <t>SLB-RLOS-125668</t>
+  </si>
+  <si>
     <t>SLB-RLOS-128779</t>
   </si>
   <si>
     <t>SLB-RLOS-127822</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-127610</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-126245</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-126233</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-126142</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-125668</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-125552</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-125270</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-123864</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-123248</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-123174</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-122703</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-122274</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-122218</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-121575</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-121421</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-121413</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-121287</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-120429</t>
-  </si>
-  <si>
-    <t>Edna Manley College</t>
-  </si>
-  <si>
-    <t>SLB-RLOS-127127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semester cost </t>
-  </si>
-  <si>
-    <t>Registered  "Y" or "N"</t>
-  </si>
-  <si>
-    <t>Semester Number</t>
-  </si>
-  <si>
-    <t>Registered "Y" or "N"</t>
-  </si>
-  <si>
-    <t>Semester Cost</t>
-  </si>
-  <si>
-    <t>Manual Registration Information 2023/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="20"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="20"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -236,49 +207,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Currency 2" xfId="4" xr:uid="{C05E279D-D84D-46DA-8D49-68F1B56A241E}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{EAFBA2BA-7823-4364-B597-3C3AB5EA99F5}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4045D2B9-E9E7-4D1D-B642-F86A3940393A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,114 +569,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B673EE-EC45-4808-9C6D-7525F4763F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
     <col min="4" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="26.25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>135125316</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
         <v>197038.91</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>135125316</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
         <v>197038.91</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="10" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -727,931 +687,930 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50D421-5451-4B95-ACB1-456DE94DA92D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="26.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>22</v>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B3">
         <v>134211065</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
         <v>190588</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>130582344</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
         <v>208987</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
+      <c r="A5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
         <v>130485624</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
+      <c r="A6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B6">
         <v>132773333</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
         <v>190588</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>25</v>
+      <c r="A7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B7">
         <v>127284079</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
         <v>208987</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>27</v>
+      <c r="A8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B8">
         <v>132096099</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
         <v>190588</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
+      <c r="A9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B9">
         <v>127235078</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
         <v>208987</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
+      <c r="A10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
         <v>128101725</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
         <v>179673</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B11">
         <v>130503380</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
         <v>190588</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
+      <c r="A12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B12">
         <v>121606244</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
         <v>208987</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
+      <c r="A13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B13">
         <v>134095901</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
         <v>197045</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>7</v>
+      <c r="A14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B14">
         <v>132515164</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
         <v>179673</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>24</v>
+      <c r="A15" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B15">
         <v>127329714</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
         <v>190588</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>20</v>
+      <c r="A16" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B16">
         <v>134185854</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
         <v>197045</v>
       </c>
       <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="B17">
         <v>133295419</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
         <v>197038</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>19</v>
+      <c r="A18" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B18">
         <v>126447080</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="C18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
         <v>179673</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>16</v>
+      <c r="A19" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B19">
         <v>132258544</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
         <v>190588</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
+      <c r="A20" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B20">
         <v>134651383</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="C20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
         <v>190588</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>23</v>
+      <c r="A21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B21">
         <v>134350693</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="C21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
         <v>190588</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>14</v>
+      <c r="A22" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B22">
         <v>127060600</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
         <v>190588</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>8</v>
+      <c r="A23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B23">
         <v>118960547</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
         <v>190588</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>9</v>
+      <c r="A24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B24">
         <v>130793060</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="C24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
         <v>190588</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>22</v>
+      <c r="A25" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B25">
         <v>134211065</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
         <v>190588</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>6</v>
+      <c r="A26" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B26">
         <v>130582344</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
         <v>208988</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>21</v>
+      <c r="A27" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B27">
         <v>130485624</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="C27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>26</v>
+      <c r="A28" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B28">
         <v>132773333</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="C28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
         <v>190588</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>25</v>
+      <c r="A29" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B29">
         <v>127284079</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="C29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
         <v>208988</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>27</v>
+      <c r="A30" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B30">
         <v>132096099</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
         <v>190588</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>15</v>
+      <c r="A31" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B31">
         <v>127235078</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="C31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6">
         <v>208988</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>17</v>
+      <c r="A32" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B32">
         <v>128101725</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="C32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
         <v>179674</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>18</v>
+      <c r="A33" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B33">
         <v>130503380</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="C33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
         <v>190588</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>12</v>
+      <c r="A34" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B34">
         <v>121606244</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="C34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
         <v>208988</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>11</v>
+      <c r="A35" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B35">
         <v>134095901</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="C35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
         <v>197045</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>7</v>
+      <c r="A36" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B36">
         <v>132515164</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="C36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
         <v>179674</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>24</v>
+      <c r="A37" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B37">
         <v>127329714</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="C37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
         <v>190588</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>20</v>
+      <c r="A38" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B38">
         <v>134185854</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="C38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
         <v>197045</v>
       </c>
       <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="B39">
         <v>133295419</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="C39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="6">
         <v>197052</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>19</v>
+      <c r="A40" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B40">
         <v>126447080</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3">
-        <v>2</v>
-      </c>
-      <c r="E40" s="7">
+      <c r="C40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6">
         <v>179674</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>16</v>
+      <c r="A41" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B41">
         <v>132258544</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="C41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6">
         <v>190588</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>13</v>
+      <c r="A42" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B42">
         <v>134651383</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="3">
-        <v>2</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="C42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6">
         <v>190588</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>23</v>
+      <c r="A43" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B43">
         <v>134350693</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="C43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6">
         <v>190588</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>14</v>
+      <c r="A44" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B44">
         <v>127060600</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="C44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6">
         <v>190588</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>8</v>
+      <c r="A45" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B45">
         <v>118960547</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2</v>
-      </c>
-      <c r="E45" s="7">
+      <c r="C45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6">
         <v>190588</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>9</v>
+      <c r="A46" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B46">
         <v>130793060</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="C46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6">
         <v>190588</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
